--- a/data-raw/rural-yearbook/part03-agri-produce/02-fertilizer/raw-2018-2019-edited.xlsx
+++ b/data-raw/rural-yearbook/part03-agri-produce/02-fertilizer/raw-2018-2019-edited.xlsx
@@ -3,20 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\techme\data-raw\rural-yearbook\part03-agri-produce\02-fertilizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{611C0207-62B0-4045-A4D4-BF44CE1CE6F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4F2C1FC-EDA3-4036-B694-BB9B197EC0C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookPassword="DC32" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="1-2" sheetId="1" r:id="rId1"/>
-    <sheet name="CNKI" sheetId="2" state="hidden" r:id="rId2"/>
-    <sheet name="add.sheet" sheetId="3" r:id="rId3"/>
+    <sheet name="CNKI" sheetId="4" state="hidden" r:id="rId2"/>
+    <sheet name="add.sheet" r:id="rId6" sheetId="5"/>
   </sheets>
   <calcPr calcId="114210"/>
   <extLst>
@@ -691,6 +691,9 @@
     <t>3-11 续表</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>3.钾肥</t>
   </si>
   <si>
@@ -1007,10 +1010,6 @@
   </si>
   <si>
     <t>http://www.cnki.net/</t>
-  </si>
-  <si>
-    <t>地区</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1018,9 +1017,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="mm/dd/yyyy\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yyyy hh:mm:ss"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -1029,20 +1028,17 @@
     <font>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1050,17 +1046,10 @@
       <sz val="12"/>
       <color indexed="12"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1068,15 +1057,26 @@
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
+      <patternFill patternType="solid"/>
+    </fill>
+    <fill>
       <patternFill patternType="solid">
         <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashDot">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -1092,18 +1092,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1127,7 +1123,46 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1169,17 +1204,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1190,57 +1214,36 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="true" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyNumberFormat="true">
+      <alignment wrapText="true"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1249,72 +1252,77 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="6"/>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="XLConnect.Boolean" xfId="1"/>
-    <cellStyle name="XLConnect.DateTime" xfId="2"/>
-    <cellStyle name="XLConnect.Header" xfId="3"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="XLConnect.Header" xfId="2"/>
+    <cellStyle name="XLConnect.String" xfId="3"/>
     <cellStyle name="XLConnect.Numeric" xfId="4"/>
-    <cellStyle name="XLConnect.String" xfId="5"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="XLConnect.Boolean" xfId="5"/>
+    <cellStyle name="XLConnect.DateTime" xfId="6"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1626,829 +1634,1352 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.625" customWidth="1"/>
-    <col min="5" max="5" width="6.625" customWidth="1"/>
-    <col min="7" max="7" width="6.625" customWidth="1"/>
-    <col min="8" max="8" width="2.625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="3.625" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="6.625" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="6.625" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="2.625" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" style="1" width="2.625" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="3.625" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="6.625" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" width="6.625" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="J1" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="J2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="17" t="s">
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="J3" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="L3" s="21"/>
+      <c r="M3" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="N3" s="22"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="19" t="s">
+      <c r="C4" s="21"/>
+      <c r="D4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="19" t="s">
+      <c r="E4" s="21"/>
+      <c r="F4" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="21"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="18"/>
-      <c r="B5" s="5" t="s">
+      <c r="G4" s="22"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="L4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="M4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="N4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="5" t="s">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A5" s="19"/>
+      <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="7" t="s">
+      <c r="D5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="K5" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="10" t="s">
+      <c r="J6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="K6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="N6" s="13" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="13" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="10" t="s">
+      <c r="J7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="K7" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="13" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="10" t="s">
+      <c r="J8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="K8" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="M8" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="N8" s="13" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="13" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="10" t="s">
+      <c r="J9" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="K9" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="N9" s="13" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A10" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="13" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="10" t="s">
+      <c r="J10" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="K10" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="M10" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="N10" s="13" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A11" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="13" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="10" t="s">
+      <c r="J11" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="M11" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="N11" s="13" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A12" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="13" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="10" t="s">
+      <c r="J12" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="K12" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="M12" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="N12" s="13" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A13" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="13" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="10" t="s">
+      <c r="J13" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="K13" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="M13" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="N13" s="13" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A14" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="13" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="10" t="s">
+      <c r="J14" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="K14" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="N14" s="13" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A15" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="13" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="10" t="s">
+      <c r="J15" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="K15" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="M15" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="N15" s="13" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A16" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G16" s="13" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="10" t="s">
+      <c r="J16" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="K16" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="M16" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="N16" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A17" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="13" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="10" t="s">
+      <c r="J17" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="K17" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="M17" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="N17" s="13" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A18" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="13" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="10" t="s">
+      <c r="J18" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="K18" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="M18" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="N18" s="13" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A19" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="G19" s="13" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="10" t="s">
+      <c r="J19" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="K19" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M19" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="N19" s="13" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A20" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="G20" s="13" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="10" t="s">
+      <c r="J20" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="K20" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="M20" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="N20" s="13" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A21" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B21" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="G21" s="12" t="s">
+      <c r="G21" s="13" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="10" t="s">
+      <c r="J21" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="K21" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="L21" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="M21" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="N21" s="13" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A22" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B22" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="G22" s="12" t="s">
+      <c r="G22" s="13" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="10" t="s">
+      <c r="J22" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="K22" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="L22" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="M22" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="N22" s="13" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A23" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="F23" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="G23" s="12" t="s">
+      <c r="G23" s="13" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="10" t="s">
+      <c r="J23" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="K23" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="L23" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="M23" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="N23" s="13" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A24" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B24" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="G24" s="12" t="s">
+      <c r="G24" s="13" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="10" t="s">
+      <c r="J24" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="K24" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="L24" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="M24" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="N24" s="13" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A25" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B25" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="F25" s="12" t="s">
+      <c r="F25" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="G25" s="12" t="s">
+      <c r="G25" s="13" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="10" t="s">
+      <c r="J25" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="K25" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="L25" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="M25" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="N25" s="13" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A26" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B26" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="F26" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="G26" s="12" t="s">
+      <c r="G26" s="13" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="10" t="s">
+      <c r="J26" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="K26" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="L26" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="M26" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="N26" s="13" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A27" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B27" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="F27" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="G27" s="12" t="s">
+      <c r="G27" s="13" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" s="10" t="s">
+      <c r="J27" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="K27" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="L27" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M27" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="N27" s="13" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A28" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B28" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="E28" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="F28" s="12" t="s">
+      <c r="F28" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="G28" s="12" t="s">
+      <c r="G28" s="13" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" s="10" t="s">
+      <c r="J28" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="K28" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="L28" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="M28" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="N28" s="13" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A29" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="B29" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="E29" s="12" t="s">
+      <c r="E29" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="F29" s="12" t="s">
+      <c r="F29" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="G29" s="12" t="s">
+      <c r="G29" s="13" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" s="10" t="s">
+      <c r="J29" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="K29" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="L29" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="M29" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="N29" s="13" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A30" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="B30" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="E30" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="F30" s="12" t="s">
+      <c r="F30" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="G30" s="12" t="s">
+      <c r="G30" s="13" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31" s="10" t="s">
+      <c r="J30" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="K30" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="L30" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="M30" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="N30" s="13" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A31" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="B31" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="E31" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="F31" s="12" t="s">
+      <c r="F31" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="G31" s="12" t="s">
+      <c r="G31" s="13" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32" s="10" t="s">
+      <c r="J31" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="K31" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L31" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M31" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="N31" s="13" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A32" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B32" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E32" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="F32" s="12" t="s">
+      <c r="F32" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="G32" s="12" t="s">
+      <c r="G32" s="13" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33" s="10" t="s">
+      <c r="J32" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="K32" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="L32" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="M32" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="N32" s="13" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A33" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="B33" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="E33" s="12" t="s">
+      <c r="E33" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="F33" s="12" t="s">
+      <c r="F33" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="G33" s="12" t="s">
+      <c r="G33" s="13" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A34" s="10" t="s">
+      <c r="J33" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="K33" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="L33" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="M33" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="N33" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A34" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="E34" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="F34" s="12" t="s">
+      <c r="F34" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="G34" s="12" t="s">
+      <c r="G34" s="13" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A35" s="10" t="s">
+      <c r="J34" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="K34" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="L34" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="M34" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="N34" s="13" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A35" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B35" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="D35" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="E35" s="12" t="s">
+      <c r="E35" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="F35" s="12" t="s">
+      <c r="F35" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="G35" s="12" t="s">
+      <c r="G35" s="13" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36" s="10" t="s">
+      <c r="J35" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="K35" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="L35" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="M35" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="N35" s="13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A36" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="B36" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="D36" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="E36" s="12" t="s">
+      <c r="E36" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F36" s="12" t="s">
+      <c r="F36" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="G36" s="12" t="s">
+      <c r="G36" s="13" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A37" s="13" t="s">
+      <c r="J36" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="K36" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="L36" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="M36" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="N36" s="16" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A37" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="B37" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="D37" s="15" t="s">
+      <c r="D37" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="E37" s="15" t="s">
+      <c r="E37" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="F37" s="15" t="s">
+      <c r="F37" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="G37" s="15" t="s">
+      <c r="G37" s="16" t="s">
         <v>217</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:E4"/>
@@ -2470,8 +3001,8 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
-        <v>324</v>
+      <c r="A1" s="17" t="s">
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -2484,620 +3015,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E36"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="3.625" customWidth="1"/>
-    <col min="3" max="3" width="6.625" customWidth="1"/>
-    <col min="5" max="5" width="6.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="17" t="s">
-        <v>325</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="E3" s="21"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="18"/>
-      <c r="B4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>286</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>287</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>296</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>301</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>305</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>310</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>318</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>320</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>321</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>322</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>323</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter alignWithMargins="0"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/data-raw/rural-yearbook/part03-agri-produce/02-fertilizer/raw-2018-2019-edited.xlsx
+++ b/data-raw/rural-yearbook/part03-agri-produce/02-fertilizer/raw-2018-2019-edited.xlsx
@@ -1,33 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\techme\data-raw\rural-yearbook\part03-agri-produce\02-fertilizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4F2C1FC-EDA3-4036-B694-BB9B197EC0C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02E63F7-01F4-440A-B069-3429774E372E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookPassword="DC32" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-9878" yWindow="8002" windowWidth="24496" windowHeight="15795" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1-2" sheetId="1" r:id="rId1"/>
     <sheet name="CNKI" sheetId="4" state="hidden" r:id="rId2"/>
-    <sheet name="add.sheet" r:id="rId6" sheetId="5"/>
+    <sheet name="add.sheet" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="114210"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -691,9 +682,6 @@
     <t>3-11 续表</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>3.钾肥</t>
   </si>
   <si>
@@ -1010,16 +998,20 @@
   </si>
   <si>
     <t>http://www.cnki.net/</t>
+  </si>
+  <si>
+    <t>地  区</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yyyy hh:mm:ss"/>
+    <numFmt numFmtId="176" formatCode="mm/dd/yyyy\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -1048,8 +1040,25 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1057,26 +1066,14 @@
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
-      <patternFill patternType="solid"/>
-    </fill>
-    <fill>
       <patternFill patternType="solid">
         <fgColor indexed="22"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashDot">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
@@ -1223,27 +1220,24 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="true" applyFill="true">
-      <alignment wrapText="true"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="true">
-      <alignment wrapText="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="true">
-      <alignment wrapText="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="true">
-      <alignment wrapText="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyNumberFormat="true">
-      <alignment wrapText="true"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0">
+      <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1252,77 +1246,75 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="6"/>
   </cellXfs>
   <cellStyles count="7">
+    <cellStyle name="XLConnect.Boolean" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="XLConnect.DateTime" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="XLConnect.Header" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="XLConnect.Numeric" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="XLConnect.String" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
-    <cellStyle name="XLConnect.Header" xfId="2"/>
-    <cellStyle name="XLConnect.String" xfId="3"/>
-    <cellStyle name="XLConnect.Numeric" xfId="4"/>
-    <cellStyle name="XLConnect.Boolean" xfId="5"/>
-    <cellStyle name="XLConnect.DateTime" xfId="6"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1633,1353 +1625,830 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="90" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:N1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="3.625" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="6.625" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="6.625" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="2.625" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" style="1" width="2.625" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="3.625" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="6.625" collapsed="false"/>
-    <col min="14" max="14" customWidth="true" width="6.625" collapsed="false"/>
+    <col min="1" max="1" width="3.625" customWidth="1"/>
+    <col min="5" max="5" width="6.625" customWidth="1"/>
+    <col min="7" max="7" width="6.625" customWidth="1"/>
+    <col min="8" max="8" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="J1" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="J2" s="4" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="J3" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="K3" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="L3" s="21"/>
-      <c r="M3" s="20" t="s">
-        <v>221</v>
-      </c>
-      <c r="N3" s="22"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" s="18" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="20" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="20" t="s">
+      <c r="E4" s="20"/>
+      <c r="F4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="22"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="6" t="s">
+      <c r="G4" s="21"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="18"/>
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="E5" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A5" s="19"/>
-      <c r="B5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="G5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" s="8" t="s">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="M5" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="N5" s="10" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="11" t="s">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="B7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="13" t="s">
+      <c r="G7" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="13" t="s">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A32" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A35" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="N6" s="13" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="L7" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="M7" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="N7" s="13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="13" t="s">
+      <c r="E35" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A36" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="E36" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="L8" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="M8" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="N8" s="13" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="L9" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="M9" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="N9" s="13" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="L10" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="M10" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="N10" s="13" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="L11" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="M11" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="N11" s="13" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="L12" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="M12" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="N12" s="13" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="K13" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="L13" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="M13" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="N13" s="13" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L14" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="M14" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="N14" s="13" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="K15" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="L15" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="M15" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="N15" s="13" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A16" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="K16" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="L16" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="M16" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="N16" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A17" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="J17" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="K17" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="L17" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="M17" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="N17" s="13" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A18" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="J18" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="L18" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="M18" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="N18" s="13" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A19" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="J19" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="K19" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="L19" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M19" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="N19" s="13" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A20" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="J20" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="K20" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="L20" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="M20" s="13" t="s">
-        <v>272</v>
-      </c>
-      <c r="N20" s="13" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A21" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="J21" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="K21" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="L21" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="M21" s="13" t="s">
-        <v>276</v>
-      </c>
-      <c r="N21" s="13" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A22" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="J22" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="K22" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="L22" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="M22" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="N22" s="13" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A23" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="J23" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="K23" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="L23" s="13" t="s">
-        <v>283</v>
-      </c>
-      <c r="M23" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="N23" s="13" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A24" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="J24" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="K24" s="12" t="s">
-        <v>286</v>
-      </c>
-      <c r="L24" s="13" t="s">
-        <v>287</v>
-      </c>
-      <c r="M24" s="13" t="s">
-        <v>288</v>
-      </c>
-      <c r="N24" s="13" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A25" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="J25" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="K25" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="L25" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="M25" s="13" t="s">
-        <v>292</v>
-      </c>
-      <c r="N25" s="13" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A26" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="B26" s="12" t="s">
+      <c r="F36" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A37" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="B37" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="C26" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="J26" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="K26" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="L26" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="M26" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="N26" s="13" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A27" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="J27" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="K27" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="L27" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="M27" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="N27" s="13" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A28" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="J28" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="K28" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="L28" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="M28" s="13" t="s">
-        <v>300</v>
-      </c>
-      <c r="N28" s="13" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A29" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="G29" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="J29" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="K29" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="L29" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="M29" s="13" t="s">
-        <v>304</v>
-      </c>
-      <c r="N29" s="13" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A30" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="G30" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="J30" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="K30" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="L30" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="M30" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="N30" s="13" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A31" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="G31" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="J31" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="K31" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L31" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="M31" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="N31" s="13" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A32" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="G32" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="J32" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="K32" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="L32" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="M32" s="13" t="s">
-        <v>313</v>
-      </c>
-      <c r="N32" s="13" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A33" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="G33" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="J33" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="K33" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="L33" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="M33" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="N33" s="13" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A34" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="G34" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="J34" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="K34" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="L34" s="13" t="s">
-        <v>317</v>
-      </c>
-      <c r="M34" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="N34" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A35" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="G35" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="J35" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="K35" s="12" t="s">
-        <v>318</v>
-      </c>
-      <c r="L35" s="13" t="s">
-        <v>319</v>
-      </c>
-      <c r="M35" s="13" t="s">
-        <v>320</v>
-      </c>
-      <c r="N35" s="13" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A36" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F36" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="G36" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="J36" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="K36" s="15" t="s">
-        <v>321</v>
-      </c>
-      <c r="L36" s="16" t="s">
-        <v>322</v>
-      </c>
-      <c r="M36" s="16" t="s">
-        <v>323</v>
-      </c>
-      <c r="N36" s="16" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A37" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="D37" s="16" t="s">
+      <c r="D37" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="F37" s="16" t="s">
+      <c r="F37" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="G37" s="16" t="s">
+      <c r="G37" s="15" t="s">
         <v>217</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
+  <mergeCells count="4">
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:E4"/>
@@ -2987,13 +2456,14 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <picture r:id="rId1"/>
+  <picture r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3001,28 +2471,633 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
-        <v>325</v>
+      <c r="A1" s="16" t="s">
+        <v>324</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.625" customWidth="1"/>
+    <col min="3" max="3" width="6.625" customWidth="1"/>
+    <col min="5" max="5" width="6.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="E3" s="21"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="18"/>
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>323</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>